--- a/data/recommendartion_data/finalIndonesia_data.xlsx
+++ b/data/recommendartion_data/finalIndonesia_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teddy Dharma\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODING\Project Capstone Bisa AI\data\recommendartion_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA2A89-7C9E-45DE-AA64-7A9EB3F87725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB78295-A313-4B08-9FF1-CA6AEE1D1173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="4410" windowWidth="21675" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Lembar1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="1071">
   <si>
     <t>resep_id</t>
   </si>
@@ -1324,9 +1324,6 @@
   </si>
   <si>
     <t>ID39</t>
-  </si>
-  <si>
-    <t>-, -, -, -</t>
   </si>
   <si>
     <t>ID40</t>
@@ -3302,13 +3299,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3526,8 +3524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B33"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="F270" sqref="F270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4331,7 +4329,7 @@
         <v>355</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>357</v>
@@ -4342,7 +4340,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>42</v>
@@ -4351,7 +4349,7 @@
         <v>355</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>357</v>
@@ -4362,7 +4360,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>43</v>
@@ -4371,7 +4369,7 @@
         <v>355</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>357</v>
@@ -4382,7 +4380,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>44</v>
@@ -4391,7 +4389,7 @@
         <v>355</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>357</v>
@@ -4402,7 +4400,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>45</v>
@@ -4411,7 +4409,7 @@
         <v>355</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>357</v>
@@ -4422,7 +4420,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>46</v>
@@ -4431,7 +4429,7 @@
         <v>355</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>357</v>
@@ -4442,7 +4440,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>47</v>
@@ -4451,7 +4449,7 @@
         <v>355</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>357</v>
@@ -4462,7 +4460,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>48</v>
@@ -4471,7 +4469,7 @@
         <v>355</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>357</v>
@@ -4482,7 +4480,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>49</v>
@@ -4491,7 +4489,7 @@
         <v>355</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>357</v>
@@ -4502,7 +4500,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>50</v>
@@ -4511,7 +4509,7 @@
         <v>355</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>357</v>
@@ -4522,7 +4520,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>51</v>
@@ -4531,7 +4529,7 @@
         <v>355</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>357</v>
@@ -4542,7 +4540,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>52</v>
@@ -4551,7 +4549,7 @@
         <v>355</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>357</v>
@@ -4562,7 +4560,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>53</v>
@@ -4571,7 +4569,7 @@
         <v>355</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>357</v>
@@ -4582,7 +4580,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>54</v>
@@ -4591,7 +4589,7 @@
         <v>355</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>357</v>
@@ -4602,7 +4600,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>55</v>
@@ -4611,7 +4609,7 @@
         <v>355</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>357</v>
@@ -4622,7 +4620,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>56</v>
@@ -4631,7 +4629,7 @@
         <v>355</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>357</v>
@@ -4642,7 +4640,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>57</v>
@@ -4651,7 +4649,7 @@
         <v>355</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>357</v>
@@ -4662,7 +4660,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>58</v>
@@ -4671,7 +4669,7 @@
         <v>355</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>357</v>
@@ -4682,7 +4680,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>59</v>
@@ -4691,7 +4689,7 @@
         <v>355</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>357</v>
@@ -4702,7 +4700,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>60</v>
@@ -4711,7 +4709,7 @@
         <v>355</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>357</v>
@@ -4722,7 +4720,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>61</v>
@@ -4731,7 +4729,7 @@
         <v>355</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>357</v>
@@ -4742,7 +4740,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>62</v>
@@ -4751,7 +4749,7 @@
         <v>355</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>357</v>
@@ -4762,7 +4760,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>63</v>
@@ -4771,7 +4769,7 @@
         <v>355</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>357</v>
@@ -4782,7 +4780,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>64</v>
@@ -4791,7 +4789,7 @@
         <v>355</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>357</v>
@@ -4802,7 +4800,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>65</v>
@@ -4811,7 +4809,7 @@
         <v>355</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>357</v>
@@ -4822,7 +4820,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>66</v>
@@ -4831,7 +4829,7 @@
         <v>355</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>357</v>
@@ -4842,7 +4840,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>67</v>
@@ -4851,7 +4849,7 @@
         <v>355</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>357</v>
@@ -4862,7 +4860,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>68</v>
@@ -4871,7 +4869,7 @@
         <v>355</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>357</v>
@@ -4882,7 +4880,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>69</v>
@@ -4891,7 +4889,7 @@
         <v>355</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>357</v>
@@ -4902,7 +4900,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>70</v>
@@ -4911,7 +4909,7 @@
         <v>355</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>357</v>
@@ -4922,7 +4920,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>71</v>
@@ -4931,7 +4929,7 @@
         <v>355</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>357</v>
@@ -4942,7 +4940,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>72</v>
@@ -4951,7 +4949,7 @@
         <v>355</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>357</v>
@@ -4962,7 +4960,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>73</v>
@@ -4971,7 +4969,7 @@
         <v>355</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>357</v>
@@ -4982,7 +4980,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>74</v>
@@ -4991,7 +4989,7 @@
         <v>355</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>357</v>
@@ -5002,7 +5000,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>75</v>
@@ -5011,7 +5009,7 @@
         <v>355</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>357</v>
@@ -5022,7 +5020,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>76</v>
@@ -5031,7 +5029,7 @@
         <v>355</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>357</v>
@@ -5042,7 +5040,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>77</v>
@@ -5051,7 +5049,7 @@
         <v>355</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>357</v>
@@ -5062,7 +5060,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>78</v>
@@ -5071,7 +5069,7 @@
         <v>355</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>357</v>
@@ -5082,7 +5080,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>79</v>
@@ -5091,7 +5089,7 @@
         <v>355</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>357</v>
@@ -5102,7 +5100,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>80</v>
@@ -5111,7 +5109,7 @@
         <v>355</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>357</v>
@@ -5122,7 +5120,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>81</v>
@@ -5131,7 +5129,7 @@
         <v>355</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>357</v>
@@ -5142,7 +5140,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>82</v>
@@ -5151,7 +5149,7 @@
         <v>355</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>357</v>
@@ -5162,7 +5160,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>83</v>
@@ -5171,7 +5169,7 @@
         <v>355</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>357</v>
@@ -5182,7 +5180,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>84</v>
@@ -5191,7 +5189,7 @@
         <v>355</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>357</v>
@@ -5202,7 +5200,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>85</v>
@@ -5211,7 +5209,7 @@
         <v>355</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>357</v>
@@ -5222,7 +5220,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>86</v>
@@ -5231,7 +5229,7 @@
         <v>355</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>357</v>
@@ -5242,7 +5240,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>87</v>
@@ -5251,7 +5249,7 @@
         <v>355</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>357</v>
@@ -5262,7 +5260,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>88</v>
@@ -5271,7 +5269,7 @@
         <v>355</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>357</v>
@@ -5282,7 +5280,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>89</v>
@@ -5291,7 +5289,7 @@
         <v>355</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>357</v>
@@ -5302,7 +5300,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>90</v>
@@ -5311,7 +5309,7 @@
         <v>355</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>357</v>
@@ -5322,7 +5320,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>91</v>
@@ -5331,7 +5329,7 @@
         <v>355</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>357</v>
@@ -5342,7 +5340,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>92</v>
@@ -5351,7 +5349,7 @@
         <v>355</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>357</v>
@@ -5362,7 +5360,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>93</v>
@@ -5371,7 +5369,7 @@
         <v>355</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>357</v>
@@ -5382,7 +5380,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>94</v>
@@ -5391,7 +5389,7 @@
         <v>355</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>357</v>
@@ -5402,7 +5400,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>95</v>
@@ -5411,7 +5409,7 @@
         <v>355</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>357</v>
@@ -5422,7 +5420,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>96</v>
@@ -5431,7 +5429,7 @@
         <v>355</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>357</v>
@@ -5442,7 +5440,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>97</v>
@@ -5451,7 +5449,7 @@
         <v>355</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>357</v>
@@ -5462,7 +5460,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>98</v>
@@ -5471,7 +5469,7 @@
         <v>355</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>357</v>
@@ -5482,7 +5480,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>99</v>
@@ -5491,7 +5489,7 @@
         <v>355</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>357</v>
@@ -5502,7 +5500,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>100</v>
@@ -5511,7 +5509,7 @@
         <v>355</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>357</v>
@@ -5522,7 +5520,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>101</v>
@@ -5531,7 +5529,7 @@
         <v>355</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>357</v>
@@ -5542,7 +5540,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>102</v>
@@ -5551,7 +5549,7 @@
         <v>355</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>357</v>
@@ -5562,7 +5560,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>103</v>
@@ -5571,7 +5569,7 @@
         <v>355</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>357</v>
@@ -5582,7 +5580,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>104</v>
@@ -5591,7 +5589,7 @@
         <v>355</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>357</v>
@@ -5602,7 +5600,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>105</v>
@@ -5611,7 +5609,7 @@
         <v>355</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>357</v>
@@ -5622,7 +5620,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>106</v>
@@ -5631,7 +5629,7 @@
         <v>355</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>357</v>
@@ -5642,7 +5640,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>107</v>
@@ -5651,7 +5649,7 @@
         <v>355</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>357</v>
@@ -5662,7 +5660,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>108</v>
@@ -5671,7 +5669,7 @@
         <v>355</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>357</v>
@@ -5682,7 +5680,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>109</v>
@@ -5691,7 +5689,7 @@
         <v>355</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>357</v>
@@ -5702,7 +5700,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>110</v>
@@ -5711,7 +5709,7 @@
         <v>355</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>357</v>
@@ -5722,7 +5720,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>111</v>
@@ -5731,7 +5729,7 @@
         <v>355</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>357</v>
@@ -5742,7 +5740,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>112</v>
@@ -5751,7 +5749,7 @@
         <v>355</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>357</v>
@@ -5762,7 +5760,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>113</v>
@@ -5771,7 +5769,7 @@
         <v>355</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>357</v>
@@ -5782,7 +5780,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>114</v>
@@ -5791,7 +5789,7 @@
         <v>355</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>357</v>
@@ -5802,7 +5800,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>115</v>
@@ -5811,7 +5809,7 @@
         <v>355</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>357</v>
@@ -5822,7 +5820,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>116</v>
@@ -5831,7 +5829,7 @@
         <v>355</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>357</v>
@@ -5842,7 +5840,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>117</v>
@@ -5851,7 +5849,7 @@
         <v>355</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>357</v>
@@ -5862,7 +5860,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>118</v>
@@ -5871,7 +5869,7 @@
         <v>355</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>357</v>
@@ -5882,7 +5880,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>119</v>
@@ -5891,7 +5889,7 @@
         <v>355</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>357</v>
@@ -5902,7 +5900,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>120</v>
@@ -5911,7 +5909,7 @@
         <v>355</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>357</v>
@@ -5922,7 +5920,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>121</v>
@@ -5931,7 +5929,7 @@
         <v>355</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>357</v>
@@ -5942,7 +5940,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>122</v>
@@ -5951,7 +5949,7 @@
         <v>355</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>357</v>
@@ -5962,7 +5960,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>123</v>
@@ -5971,7 +5969,7 @@
         <v>355</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>357</v>
@@ -5982,7 +5980,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>124</v>
@@ -5991,7 +5989,7 @@
         <v>355</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>357</v>
@@ -6002,7 +6000,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>125</v>
@@ -6011,7 +6009,7 @@
         <v>355</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>357</v>
@@ -6022,7 +6020,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>126</v>
@@ -6031,7 +6029,7 @@
         <v>355</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>357</v>
@@ -6042,7 +6040,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>127</v>
@@ -6051,7 +6049,7 @@
         <v>355</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>357</v>
@@ -6062,7 +6060,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>128</v>
@@ -6071,7 +6069,7 @@
         <v>355</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>357</v>
@@ -6082,7 +6080,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>129</v>
@@ -6091,7 +6089,7 @@
         <v>355</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>357</v>
@@ -6102,7 +6100,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>130</v>
@@ -6111,7 +6109,7 @@
         <v>355</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>357</v>
@@ -6122,7 +6120,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>131</v>
@@ -6131,7 +6129,7 @@
         <v>355</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>357</v>
@@ -6142,7 +6140,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>132</v>
@@ -6151,7 +6149,7 @@
         <v>355</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>357</v>
@@ -6162,7 +6160,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>133</v>
@@ -6171,7 +6169,7 @@
         <v>355</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>357</v>
@@ -6182,7 +6180,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>134</v>
@@ -6191,7 +6189,7 @@
         <v>355</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>357</v>
@@ -6202,7 +6200,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>135</v>
@@ -6211,7 +6209,7 @@
         <v>355</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>357</v>
@@ -6222,7 +6220,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>136</v>
@@ -6231,7 +6229,7 @@
         <v>355</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>357</v>
@@ -6242,7 +6240,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>137</v>
@@ -6251,7 +6249,7 @@
         <v>355</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>357</v>
@@ -6262,7 +6260,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>138</v>
@@ -6271,7 +6269,7 @@
         <v>355</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>357</v>
@@ -6282,7 +6280,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>139</v>
@@ -6291,7 +6289,7 @@
         <v>355</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>357</v>
@@ -6302,7 +6300,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>140</v>
@@ -6311,7 +6309,7 @@
         <v>355</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>357</v>
@@ -6322,7 +6320,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>141</v>
@@ -6331,7 +6329,7 @@
         <v>355</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>357</v>
@@ -6342,7 +6340,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>142</v>
@@ -6351,7 +6349,7 @@
         <v>355</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>357</v>
@@ -6362,7 +6360,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>143</v>
@@ -6371,7 +6369,7 @@
         <v>355</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>357</v>
@@ -6382,7 +6380,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>144</v>
@@ -6391,7 +6389,7 @@
         <v>355</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>357</v>
@@ -6402,7 +6400,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>145</v>
@@ -6411,7 +6409,7 @@
         <v>355</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>357</v>
@@ -6422,7 +6420,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>146</v>
@@ -6431,7 +6429,7 @@
         <v>355</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>357</v>
@@ -6442,7 +6440,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>147</v>
@@ -6451,7 +6449,7 @@
         <v>355</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>357</v>
@@ -6462,7 +6460,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>148</v>
@@ -6471,7 +6469,7 @@
         <v>355</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>357</v>
@@ -6482,7 +6480,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>149</v>
@@ -6491,7 +6489,7 @@
         <v>355</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>357</v>
@@ -6502,7 +6500,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>150</v>
@@ -6511,7 +6509,7 @@
         <v>355</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>357</v>
@@ -6522,7 +6520,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>151</v>
@@ -6531,7 +6529,7 @@
         <v>355</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>357</v>
@@ -6542,7 +6540,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>152</v>
@@ -6551,7 +6549,7 @@
         <v>355</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>357</v>
@@ -6562,7 +6560,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>153</v>
@@ -6571,7 +6569,7 @@
         <v>355</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>357</v>
@@ -6582,7 +6580,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>154</v>
@@ -6591,7 +6589,7 @@
         <v>355</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>357</v>
@@ -6602,7 +6600,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>155</v>
@@ -6611,7 +6609,7 @@
         <v>355</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>357</v>
@@ -6622,7 +6620,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>156</v>
@@ -6631,7 +6629,7 @@
         <v>355</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>357</v>
@@ -6642,7 +6640,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>157</v>
@@ -6651,7 +6649,7 @@
         <v>355</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>357</v>
@@ -6662,7 +6660,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>158</v>
@@ -6671,7 +6669,7 @@
         <v>355</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>357</v>
@@ -6682,7 +6680,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>159</v>
@@ -6691,7 +6689,7 @@
         <v>355</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>357</v>
@@ -6702,7 +6700,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>160</v>
@@ -6711,7 +6709,7 @@
         <v>355</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>357</v>
@@ -6722,7 +6720,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>161</v>
@@ -6731,7 +6729,7 @@
         <v>355</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>357</v>
@@ -6742,7 +6740,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>162</v>
@@ -6751,7 +6749,7 @@
         <v>355</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>357</v>
@@ -6762,7 +6760,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>163</v>
@@ -6771,7 +6769,7 @@
         <v>355</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>357</v>
@@ -6782,7 +6780,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>164</v>
@@ -6791,7 +6789,7 @@
         <v>355</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>357</v>
@@ -6802,7 +6800,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>165</v>
@@ -6811,7 +6809,7 @@
         <v>355</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>357</v>
@@ -6822,7 +6820,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>166</v>
@@ -6831,7 +6829,7 @@
         <v>355</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>357</v>
@@ -6842,7 +6840,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>167</v>
@@ -6851,7 +6849,7 @@
         <v>355</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>357</v>
@@ -6862,7 +6860,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>168</v>
@@ -6871,7 +6869,7 @@
         <v>355</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>357</v>
@@ -6882,7 +6880,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>169</v>
@@ -6891,7 +6889,7 @@
         <v>355</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>357</v>
@@ -6902,7 +6900,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>170</v>
@@ -6911,7 +6909,7 @@
         <v>355</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>357</v>
@@ -6922,7 +6920,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>171</v>
@@ -6931,7 +6929,7 @@
         <v>355</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F170" s="3" t="s">
         <v>357</v>
@@ -6942,7 +6940,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>172</v>
@@ -6951,7 +6949,7 @@
         <v>355</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F171" s="3" t="s">
         <v>357</v>
@@ -6962,7 +6960,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>173</v>
@@ -6971,7 +6969,7 @@
         <v>355</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>357</v>
@@ -6982,7 +6980,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>174</v>
@@ -6991,7 +6989,7 @@
         <v>355</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>357</v>
@@ -7002,7 +7000,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>175</v>
@@ -7011,7 +7009,7 @@
         <v>355</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F174" s="3" t="s">
         <v>357</v>
@@ -7022,7 +7020,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>176</v>
@@ -7031,7 +7029,7 @@
         <v>355</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>357</v>
@@ -7042,7 +7040,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>177</v>
@@ -7051,7 +7049,7 @@
         <v>355</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>357</v>
@@ -7062,7 +7060,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>178</v>
@@ -7071,7 +7069,7 @@
         <v>355</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>357</v>
@@ -7082,7 +7080,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>179</v>
@@ -7091,7 +7089,7 @@
         <v>355</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>357</v>
@@ -7102,7 +7100,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>36</v>
@@ -7111,7 +7109,7 @@
         <v>355</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>357</v>
@@ -7122,7 +7120,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>180</v>
@@ -7131,7 +7129,7 @@
         <v>355</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>357</v>
@@ -7142,7 +7140,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>181</v>
@@ -7151,7 +7149,7 @@
         <v>355</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>357</v>
@@ -7162,7 +7160,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>182</v>
@@ -7171,7 +7169,7 @@
         <v>355</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>357</v>
@@ -7182,7 +7180,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>183</v>
@@ -7191,7 +7189,7 @@
         <v>355</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>357</v>
@@ -7202,7 +7200,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>184</v>
@@ -7211,7 +7209,7 @@
         <v>355</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>357</v>
@@ -7222,7 +7220,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>185</v>
@@ -7231,7 +7229,7 @@
         <v>355</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>357</v>
@@ -7242,7 +7240,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>186</v>
@@ -7251,7 +7249,7 @@
         <v>355</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>357</v>
@@ -7262,7 +7260,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>187</v>
@@ -7271,7 +7269,7 @@
         <v>355</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>357</v>
@@ -7282,7 +7280,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>188</v>
@@ -7291,7 +7289,7 @@
         <v>355</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>357</v>
@@ -7302,7 +7300,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>189</v>
@@ -7311,7 +7309,7 @@
         <v>355</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>357</v>
@@ -7322,7 +7320,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>190</v>
@@ -7331,7 +7329,7 @@
         <v>355</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>357</v>
@@ -7342,7 +7340,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>191</v>
@@ -7351,7 +7349,7 @@
         <v>355</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>357</v>
@@ -7362,7 +7360,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>192</v>
@@ -7371,7 +7369,7 @@
         <v>355</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>357</v>
@@ -7382,7 +7380,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>193</v>
@@ -7391,7 +7389,7 @@
         <v>355</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>357</v>
@@ -7402,7 +7400,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>194</v>
@@ -7411,7 +7409,7 @@
         <v>355</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>357</v>
@@ -7422,7 +7420,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>195</v>
@@ -7431,7 +7429,7 @@
         <v>355</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>357</v>
@@ -7442,7 +7440,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>196</v>
@@ -7451,7 +7449,7 @@
         <v>355</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>357</v>
@@ -7462,7 +7460,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>197</v>
@@ -7471,7 +7469,7 @@
         <v>355</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>357</v>
@@ -7482,7 +7480,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>198</v>
@@ -7491,7 +7489,7 @@
         <v>355</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>357</v>
@@ -7502,7 +7500,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>199</v>
@@ -7511,7 +7509,7 @@
         <v>355</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>357</v>
@@ -7522,7 +7520,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>200</v>
@@ -7531,7 +7529,7 @@
         <v>355</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>357</v>
@@ -7542,7 +7540,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>201</v>
@@ -7551,7 +7549,7 @@
         <v>355</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>357</v>
@@ -7562,7 +7560,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>202</v>
@@ -7571,7 +7569,7 @@
         <v>355</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>357</v>
@@ -7582,7 +7580,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>203</v>
@@ -7591,7 +7589,7 @@
         <v>355</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>357</v>
@@ -7602,7 +7600,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>204</v>
@@ -7611,7 +7609,7 @@
         <v>355</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>357</v>
@@ -7622,7 +7620,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>205</v>
@@ -7631,7 +7629,7 @@
         <v>355</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>357</v>
@@ -7642,7 +7640,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>206</v>
@@ -7651,7 +7649,7 @@
         <v>355</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>357</v>
@@ -7662,7 +7660,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>207</v>
@@ -7671,7 +7669,7 @@
         <v>355</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>357</v>
@@ -7682,7 +7680,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>208</v>
@@ -7691,7 +7689,7 @@
         <v>355</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>357</v>
@@ -7702,7 +7700,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>209</v>
@@ -7711,7 +7709,7 @@
         <v>355</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>357</v>
@@ -7722,7 +7720,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>210</v>
@@ -7731,7 +7729,7 @@
         <v>355</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>357</v>
@@ -7742,7 +7740,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>211</v>
@@ -7751,7 +7749,7 @@
         <v>355</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>357</v>
@@ -7762,7 +7760,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>212</v>
@@ -7771,7 +7769,7 @@
         <v>355</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>357</v>
@@ -7782,7 +7780,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>213</v>
@@ -7791,7 +7789,7 @@
         <v>355</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>357</v>
@@ -7802,7 +7800,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>214</v>
@@ -7811,7 +7809,7 @@
         <v>355</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>357</v>
@@ -7822,7 +7820,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>215</v>
@@ -7831,7 +7829,7 @@
         <v>355</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>357</v>
@@ -7842,7 +7840,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>216</v>
@@ -7851,7 +7849,7 @@
         <v>355</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>357</v>
@@ -7862,7 +7860,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>217</v>
@@ -7871,7 +7869,7 @@
         <v>355</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>357</v>
@@ -7882,7 +7880,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>218</v>
@@ -7891,7 +7889,7 @@
         <v>355</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>357</v>
@@ -7902,7 +7900,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>219</v>
@@ -7911,7 +7909,7 @@
         <v>355</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>357</v>
@@ -7922,7 +7920,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>220</v>
@@ -7931,7 +7929,7 @@
         <v>355</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>357</v>
@@ -7942,7 +7940,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>221</v>
@@ -7951,7 +7949,7 @@
         <v>355</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>357</v>
@@ -7962,7 +7960,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>222</v>
@@ -7971,7 +7969,7 @@
         <v>355</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>357</v>
@@ -7982,7 +7980,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>223</v>
@@ -7991,7 +7989,7 @@
         <v>355</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>357</v>
@@ -8002,7 +8000,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>224</v>
@@ -8011,7 +8009,7 @@
         <v>355</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>357</v>
@@ -8022,7 +8020,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>185</v>
@@ -8031,7 +8029,7 @@
         <v>355</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F225" s="3" t="s">
         <v>357</v>
@@ -8042,7 +8040,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>225</v>
@@ -8051,7 +8049,7 @@
         <v>355</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>357</v>
@@ -8062,7 +8060,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>226</v>
@@ -8071,7 +8069,7 @@
         <v>355</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>357</v>
@@ -8082,7 +8080,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>227</v>
@@ -8091,7 +8089,7 @@
         <v>355</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>357</v>
@@ -8102,7 +8100,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>228</v>
@@ -8111,7 +8109,7 @@
         <v>355</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>357</v>
@@ -8122,7 +8120,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>229</v>
@@ -8131,7 +8129,7 @@
         <v>355</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>357</v>
@@ -8142,7 +8140,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>230</v>
@@ -8151,7 +8149,7 @@
         <v>355</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>357</v>
@@ -8162,7 +8160,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>231</v>
@@ -8171,7 +8169,7 @@
         <v>355</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>357</v>
@@ -8182,7 +8180,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>232</v>
@@ -8191,7 +8189,7 @@
         <v>355</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>357</v>
@@ -8202,7 +8200,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>233</v>
@@ -8211,7 +8209,7 @@
         <v>355</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>357</v>
@@ -8222,7 +8220,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>234</v>
@@ -8231,7 +8229,7 @@
         <v>355</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>357</v>
@@ -8242,7 +8240,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>235</v>
@@ -8251,7 +8249,7 @@
         <v>355</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>357</v>
@@ -8262,7 +8260,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>236</v>
@@ -8271,7 +8269,7 @@
         <v>355</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>357</v>
@@ -8282,16 +8280,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="D238" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E238" s="3" t="s">
         <v>829</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E238" s="3" t="s">
-        <v>830</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>357</v>
@@ -8302,7 +8300,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>237</v>
@@ -8311,7 +8309,7 @@
         <v>355</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>357</v>
@@ -8322,7 +8320,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>238</v>
@@ -8331,7 +8329,7 @@
         <v>355</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F240" s="3" t="s">
         <v>357</v>
@@ -8342,7 +8340,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>239</v>
@@ -8351,7 +8349,7 @@
         <v>355</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>357</v>
@@ -8362,7 +8360,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>240</v>
@@ -8371,7 +8369,7 @@
         <v>355</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>357</v>
@@ -8382,7 +8380,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>241</v>
@@ -8391,7 +8389,7 @@
         <v>355</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F243" s="3" t="s">
         <v>357</v>
@@ -8402,7 +8400,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>242</v>
@@ -8411,7 +8409,7 @@
         <v>355</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F244" s="3" t="s">
         <v>357</v>
@@ -8422,7 +8420,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>8</v>
@@ -8431,7 +8429,7 @@
         <v>355</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>357</v>
@@ -8442,7 +8440,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>243</v>
@@ -8451,7 +8449,7 @@
         <v>355</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>357</v>
@@ -8462,7 +8460,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>244</v>
@@ -8471,7 +8469,7 @@
         <v>355</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F247" s="3" t="s">
         <v>357</v>
@@ -8482,7 +8480,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>245</v>
@@ -8491,7 +8489,7 @@
         <v>355</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>357</v>
@@ -8502,7 +8500,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>246</v>
@@ -8511,7 +8509,7 @@
         <v>355</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F249" s="3" t="s">
         <v>357</v>
@@ -8522,7 +8520,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>247</v>
@@ -8531,7 +8529,7 @@
         <v>355</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F250" s="3" t="s">
         <v>357</v>
@@ -8542,7 +8540,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>248</v>
@@ -8551,7 +8549,7 @@
         <v>355</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F251" s="3" t="s">
         <v>357</v>
@@ -8562,7 +8560,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>249</v>
@@ -8571,7 +8569,7 @@
         <v>355</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>357</v>
@@ -8582,7 +8580,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>250</v>
@@ -8591,7 +8589,7 @@
         <v>355</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>357</v>
@@ -8602,7 +8600,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>251</v>
@@ -8611,7 +8609,7 @@
         <v>355</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F254" s="3" t="s">
         <v>357</v>
@@ -8622,7 +8620,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>252</v>
@@ -8631,7 +8629,7 @@
         <v>355</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>357</v>
@@ -8642,7 +8640,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>253</v>
@@ -8651,7 +8649,7 @@
         <v>355</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F256" s="3" t="s">
         <v>357</v>
@@ -8662,7 +8660,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>254</v>
@@ -8671,7 +8669,7 @@
         <v>355</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>357</v>
@@ -8682,7 +8680,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>255</v>
@@ -8691,7 +8689,7 @@
         <v>355</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>357</v>
@@ -8702,7 +8700,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>256</v>
@@ -8711,7 +8709,7 @@
         <v>355</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F259" s="3" t="s">
         <v>357</v>
@@ -8722,7 +8720,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>257</v>
@@ -8731,7 +8729,7 @@
         <v>355</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F260" s="3" t="s">
         <v>357</v>
@@ -8742,7 +8740,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>258</v>
@@ -8751,7 +8749,7 @@
         <v>355</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F261" s="3" t="s">
         <v>357</v>
@@ -8762,7 +8760,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>259</v>
@@ -8771,7 +8769,7 @@
         <v>355</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F262" s="3" t="s">
         <v>357</v>
@@ -8782,7 +8780,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>260</v>
@@ -8791,7 +8789,7 @@
         <v>355</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F263" s="3" t="s">
         <v>357</v>
@@ -8802,7 +8800,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>261</v>
@@ -8811,7 +8809,7 @@
         <v>355</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F264" s="3" t="s">
         <v>357</v>
@@ -8822,7 +8820,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>262</v>
@@ -8831,7 +8829,7 @@
         <v>355</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F265" s="3" t="s">
         <v>357</v>
@@ -8842,7 +8840,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>263</v>
@@ -8851,7 +8849,7 @@
         <v>355</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F266" s="3" t="s">
         <v>357</v>
@@ -8862,7 +8860,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>264</v>
@@ -8870,8 +8868,8 @@
       <c r="D267" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E267" s="3" t="s">
-        <v>433</v>
+      <c r="E267" s="4" t="s">
+        <v>885</v>
       </c>
       <c r="F267" s="3" t="s">
         <v>357</v>
@@ -8882,7 +8880,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>265</v>
@@ -8891,7 +8889,7 @@
         <v>355</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F268" s="3" t="s">
         <v>357</v>
@@ -8902,7 +8900,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>266</v>
@@ -8911,7 +8909,7 @@
         <v>355</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F269" s="3" t="s">
         <v>357</v>
@@ -8922,7 +8920,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>267</v>
@@ -8931,7 +8929,7 @@
         <v>355</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F270" s="3" t="s">
         <v>357</v>
@@ -8942,7 +8940,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>268</v>
@@ -8951,7 +8949,7 @@
         <v>355</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F271" s="3" t="s">
         <v>357</v>
@@ -8962,7 +8960,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>269</v>
@@ -8971,7 +8969,7 @@
         <v>355</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F272" s="3" t="s">
         <v>357</v>
@@ -8982,7 +8980,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>270</v>
@@ -8991,7 +8989,7 @@
         <v>355</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F273" s="3" t="s">
         <v>357</v>
@@ -9002,7 +9000,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>271</v>
@@ -9011,7 +9009,7 @@
         <v>355</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F274" s="3" t="s">
         <v>357</v>
@@ -9022,7 +9020,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>272</v>
@@ -9031,7 +9029,7 @@
         <v>355</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F275" s="3" t="s">
         <v>357</v>
@@ -9042,7 +9040,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>273</v>
@@ -9051,7 +9049,7 @@
         <v>355</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F276" s="3" t="s">
         <v>357</v>
@@ -9062,7 +9060,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>274</v>
@@ -9071,7 +9069,7 @@
         <v>355</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F277" s="3" t="s">
         <v>357</v>
@@ -9082,7 +9080,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>275</v>
@@ -9091,7 +9089,7 @@
         <v>355</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F278" s="3" t="s">
         <v>357</v>
@@ -9102,7 +9100,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>276</v>
@@ -9111,7 +9109,7 @@
         <v>355</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F279" s="3" t="s">
         <v>357</v>
@@ -9122,7 +9120,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>277</v>
@@ -9131,7 +9129,7 @@
         <v>355</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F280" s="3" t="s">
         <v>357</v>
@@ -9142,7 +9140,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>278</v>
@@ -9162,7 +9160,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>279</v>
@@ -9171,7 +9169,7 @@
         <v>355</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F282" s="3" t="s">
         <v>357</v>
@@ -9182,7 +9180,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>280</v>
@@ -9191,7 +9189,7 @@
         <v>355</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F283" s="3" t="s">
         <v>357</v>
@@ -9202,7 +9200,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>281</v>
@@ -9211,7 +9209,7 @@
         <v>355</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F284" s="3" t="s">
         <v>357</v>
@@ -9222,7 +9220,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>282</v>
@@ -9231,7 +9229,7 @@
         <v>355</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F285" s="3" t="s">
         <v>357</v>
@@ -9242,7 +9240,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>283</v>
@@ -9251,7 +9249,7 @@
         <v>355</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F286" s="3" t="s">
         <v>357</v>
@@ -9262,7 +9260,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>284</v>
@@ -9271,7 +9269,7 @@
         <v>355</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F287" s="3" t="s">
         <v>357</v>
@@ -9282,7 +9280,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>285</v>
@@ -9291,7 +9289,7 @@
         <v>355</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F288" s="3" t="s">
         <v>357</v>
@@ -9302,7 +9300,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>286</v>
@@ -9311,7 +9309,7 @@
         <v>355</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F289" s="3" t="s">
         <v>357</v>
@@ -9322,7 +9320,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>287</v>
@@ -9331,7 +9329,7 @@
         <v>355</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F290" s="3" t="s">
         <v>357</v>
@@ -9342,7 +9340,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>288</v>
@@ -9351,7 +9349,7 @@
         <v>355</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F291" s="3" t="s">
         <v>357</v>
@@ -9362,7 +9360,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>289</v>
@@ -9371,7 +9369,7 @@
         <v>355</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F292" s="3" t="s">
         <v>357</v>
@@ -9382,7 +9380,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>290</v>
@@ -9391,7 +9389,7 @@
         <v>355</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F293" s="3" t="s">
         <v>357</v>
@@ -9402,7 +9400,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>291</v>
@@ -9411,7 +9409,7 @@
         <v>355</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F294" s="3" t="s">
         <v>357</v>
@@ -9422,7 +9420,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>292</v>
@@ -9431,7 +9429,7 @@
         <v>355</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F295" s="3" t="s">
         <v>357</v>
@@ -9442,7 +9440,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>107</v>
@@ -9451,7 +9449,7 @@
         <v>355</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F296" s="3" t="s">
         <v>357</v>
@@ -9462,7 +9460,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>293</v>
@@ -9471,7 +9469,7 @@
         <v>355</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F297" s="3" t="s">
         <v>357</v>
@@ -9482,7 +9480,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>294</v>
@@ -9491,7 +9489,7 @@
         <v>355</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F298" s="3" t="s">
         <v>357</v>
@@ -9502,7 +9500,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>295</v>
@@ -9511,7 +9509,7 @@
         <v>355</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F299" s="3" t="s">
         <v>357</v>
@@ -9522,7 +9520,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>296</v>
@@ -9531,7 +9529,7 @@
         <v>355</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F300" s="3" t="s">
         <v>357</v>
@@ -9542,7 +9540,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>297</v>
@@ -9551,7 +9549,7 @@
         <v>355</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F301" s="3" t="s">
         <v>357</v>
@@ -9562,7 +9560,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>298</v>
@@ -9571,7 +9569,7 @@
         <v>355</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F302" s="3" t="s">
         <v>357</v>
@@ -9582,7 +9580,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>299</v>
@@ -9591,7 +9589,7 @@
         <v>355</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F303" s="3" t="s">
         <v>357</v>
@@ -9602,7 +9600,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>300</v>
@@ -9611,7 +9609,7 @@
         <v>355</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F304" s="3" t="s">
         <v>357</v>
@@ -9622,7 +9620,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>301</v>
@@ -9631,7 +9629,7 @@
         <v>355</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F305" s="3" t="s">
         <v>357</v>
@@ -9642,7 +9640,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>18</v>
@@ -9651,7 +9649,7 @@
         <v>355</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F306" s="3" t="s">
         <v>357</v>
@@ -9662,7 +9660,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>302</v>
@@ -9671,7 +9669,7 @@
         <v>355</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F307" s="3" t="s">
         <v>357</v>
@@ -9682,7 +9680,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>146</v>
@@ -9691,7 +9689,7 @@
         <v>355</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F308" s="3" t="s">
         <v>357</v>
@@ -9702,7 +9700,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>303</v>
@@ -9711,7 +9709,7 @@
         <v>355</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F309" s="3" t="s">
         <v>357</v>
@@ -9722,7 +9720,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>304</v>
@@ -9731,7 +9729,7 @@
         <v>355</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F310" s="3" t="s">
         <v>357</v>
@@ -9742,7 +9740,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>305</v>
@@ -9751,7 +9749,7 @@
         <v>355</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F311" s="3" t="s">
         <v>357</v>
@@ -9762,7 +9760,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>306</v>
@@ -9771,7 +9769,7 @@
         <v>355</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F312" s="3" t="s">
         <v>357</v>
@@ -9782,7 +9780,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>307</v>
@@ -9791,7 +9789,7 @@
         <v>355</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F313" s="3" t="s">
         <v>357</v>
@@ -9802,7 +9800,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>308</v>
@@ -9811,7 +9809,7 @@
         <v>355</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F314" s="3" t="s">
         <v>357</v>
@@ -9822,7 +9820,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>309</v>
@@ -9831,7 +9829,7 @@
         <v>355</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F315" s="3" t="s">
         <v>357</v>
@@ -9842,7 +9840,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>310</v>
@@ -9851,7 +9849,7 @@
         <v>355</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F316" s="3" t="s">
         <v>357</v>
@@ -9862,7 +9860,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>311</v>
@@ -9871,7 +9869,7 @@
         <v>355</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F317" s="3" t="s">
         <v>357</v>
@@ -9882,7 +9880,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>312</v>
@@ -9891,7 +9889,7 @@
         <v>355</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F318" s="3" t="s">
         <v>357</v>
@@ -9902,7 +9900,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>313</v>
@@ -9911,7 +9909,7 @@
         <v>355</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F319" s="3" t="s">
         <v>357</v>
@@ -9922,7 +9920,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>314</v>
@@ -9931,7 +9929,7 @@
         <v>355</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F320" s="3" t="s">
         <v>357</v>
@@ -9942,7 +9940,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>315</v>
@@ -9951,7 +9949,7 @@
         <v>355</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F321" s="3" t="s">
         <v>357</v>
@@ -9962,7 +9960,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>316</v>
@@ -9971,7 +9969,7 @@
         <v>355</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F322" s="3" t="s">
         <v>357</v>
@@ -9982,7 +9980,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>317</v>
@@ -9991,7 +9989,7 @@
         <v>355</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F323" s="3" t="s">
         <v>357</v>
@@ -10002,7 +10000,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>318</v>
@@ -10011,7 +10009,7 @@
         <v>355</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F324" s="3" t="s">
         <v>357</v>
@@ -10022,7 +10020,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>319</v>
@@ -10031,7 +10029,7 @@
         <v>355</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F325" s="3" t="s">
         <v>357</v>
@@ -10042,7 +10040,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>320</v>
@@ -10051,7 +10049,7 @@
         <v>355</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F326" s="3" t="s">
         <v>357</v>
@@ -10062,7 +10060,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>321</v>
@@ -10071,7 +10069,7 @@
         <v>355</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F327" s="3" t="s">
         <v>357</v>
@@ -10082,7 +10080,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>322</v>
@@ -10091,7 +10089,7 @@
         <v>355</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F328" s="3" t="s">
         <v>357</v>
@@ -10102,7 +10100,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>323</v>
@@ -10111,7 +10109,7 @@
         <v>355</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F329" s="3" t="s">
         <v>357</v>
@@ -10122,7 +10120,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>324</v>
@@ -10131,7 +10129,7 @@
         <v>355</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F330" s="3" t="s">
         <v>357</v>
@@ -10142,7 +10140,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>325</v>
@@ -10151,7 +10149,7 @@
         <v>355</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F331" s="3" t="s">
         <v>357</v>
@@ -10162,7 +10160,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>326</v>
@@ -10171,7 +10169,7 @@
         <v>355</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F332" s="3" t="s">
         <v>357</v>
@@ -10182,7 +10180,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>327</v>
@@ -10191,7 +10189,7 @@
         <v>355</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F333" s="3" t="s">
         <v>357</v>
@@ -10202,7 +10200,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>328</v>
@@ -10211,7 +10209,7 @@
         <v>355</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F334" s="3" t="s">
         <v>357</v>
@@ -10222,7 +10220,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>329</v>
@@ -10231,7 +10229,7 @@
         <v>355</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F335" s="3" t="s">
         <v>357</v>
@@ -10242,7 +10240,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>330</v>
@@ -10251,7 +10249,7 @@
         <v>355</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F336" s="3" t="s">
         <v>357</v>
@@ -10262,7 +10260,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>142</v>
@@ -10271,7 +10269,7 @@
         <v>355</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F337" s="3" t="s">
         <v>357</v>
@@ -10282,7 +10280,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>331</v>
@@ -10291,7 +10289,7 @@
         <v>355</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F338" s="3" t="s">
         <v>357</v>
@@ -10302,7 +10300,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>332</v>
@@ -10311,7 +10309,7 @@
         <v>355</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F339" s="3" t="s">
         <v>357</v>
@@ -10322,7 +10320,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>333</v>
@@ -10331,7 +10329,7 @@
         <v>355</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F340" s="3" t="s">
         <v>357</v>
@@ -10342,7 +10340,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>334</v>
@@ -10351,7 +10349,7 @@
         <v>355</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F341" s="3" t="s">
         <v>357</v>
@@ -10362,7 +10360,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>335</v>
@@ -10371,7 +10369,7 @@
         <v>355</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F342" s="3" t="s">
         <v>357</v>
@@ -10382,7 +10380,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>336</v>
@@ -10391,7 +10389,7 @@
         <v>355</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F343" s="3" t="s">
         <v>357</v>
@@ -10402,7 +10400,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>337</v>
@@ -10411,7 +10409,7 @@
         <v>355</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F344" s="3" t="s">
         <v>357</v>
@@ -10422,7 +10420,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>338</v>
@@ -10431,7 +10429,7 @@
         <v>355</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F345" s="3" t="s">
         <v>357</v>
@@ -10442,7 +10440,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>339</v>
@@ -10451,7 +10449,7 @@
         <v>355</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F346" s="3" t="s">
         <v>357</v>
@@ -10462,7 +10460,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>340</v>
@@ -10471,7 +10469,7 @@
         <v>355</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F347" s="3" t="s">
         <v>357</v>
@@ -10482,7 +10480,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>341</v>
@@ -10491,7 +10489,7 @@
         <v>355</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F348" s="3" t="s">
         <v>357</v>
@@ -10502,7 +10500,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>342</v>
@@ -10511,7 +10509,7 @@
         <v>355</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F349" s="3" t="s">
         <v>357</v>
@@ -10522,7 +10520,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>343</v>
@@ -10531,7 +10529,7 @@
         <v>355</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F350" s="3" t="s">
         <v>357</v>
@@ -10542,7 +10540,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>344</v>
@@ -10551,7 +10549,7 @@
         <v>355</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F351" s="3" t="s">
         <v>357</v>
@@ -10562,7 +10560,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>345</v>
@@ -10571,7 +10569,7 @@
         <v>355</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F352" s="3" t="s">
         <v>357</v>
@@ -10582,7 +10580,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>346</v>
@@ -10591,7 +10589,7 @@
         <v>355</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F353" s="3" t="s">
         <v>357</v>
@@ -10602,7 +10600,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>347</v>
@@ -10611,7 +10609,7 @@
         <v>355</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F354" s="3" t="s">
         <v>357</v>
@@ -10622,7 +10620,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>348</v>
@@ -10631,7 +10629,7 @@
         <v>355</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F355" s="3" t="s">
         <v>357</v>
@@ -10642,7 +10640,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>349</v>
@@ -10651,7 +10649,7 @@
         <v>355</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F356" s="3" t="s">
         <v>357</v>
@@ -10662,7 +10660,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>350</v>
@@ -10671,7 +10669,7 @@
         <v>355</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F357" s="3" t="s">
         <v>357</v>
@@ -10682,7 +10680,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>351</v>
@@ -10691,7 +10689,7 @@
         <v>355</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F358" s="3" t="s">
         <v>357</v>
@@ -10702,7 +10700,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>352</v>
@@ -10711,7 +10709,7 @@
         <v>355</v>
       </c>
       <c r="E359" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F359" s="3" t="s">
         <v>357</v>
@@ -10722,7 +10720,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>353</v>
@@ -10731,7 +10729,7 @@
         <v>355</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F360" s="3" t="s">
         <v>357</v>
